--- a/Multiknapsack/results/fixed_recourse/singlecut/M20_N100_T0_a50_reformulation.xlsx
+++ b/Multiknapsack/results/fixed_recourse/singlecut/M20_N100_T0_a50_reformulation.xlsx
@@ -440,13 +440,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-427.8855970728988</v>
+        <v>-137.11378193317705</v>
       </c>
       <c r="C2">
-        <v>1.3284723591925513e-14</v>
+        <v>0.052560452282368476</v>
       </c>
       <c r="D2">
-        <v>4.835584339</v>
+        <v>301.991214785</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -466,13 +466,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-434.5319297237428</v>
+        <v>-135.31516283528447</v>
       </c>
       <c r="C3">
-        <v>2.6163057291064248e-14</v>
+        <v>0.09800251867935554</v>
       </c>
       <c r="D3">
-        <v>2.088436513</v>
+        <v>384.322671638</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -492,13 +492,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-443.3980582963035</v>
+        <v>-135.95637869657497</v>
       </c>
       <c r="C4">
-        <v>0.0</v>
+        <v>0.09811297264043536</v>
       </c>
       <c r="D4">
-        <v>2.400265552</v>
+        <v>448.975615579</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -518,13 +518,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-442.3263516381828</v>
+        <v>-135.5850539924898</v>
       </c>
       <c r="C5">
-        <v>0.0</v>
+        <v>0.09669560631741587</v>
       </c>
       <c r="D5">
-        <v>2.324330704</v>
+        <v>210.674142406</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -544,13 +544,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-427.42177211849423</v>
+        <v>-135.09244017942407</v>
       </c>
       <c r="C6">
-        <v>0.0</v>
+        <v>0.07315644398569157</v>
       </c>
       <c r="D6">
-        <v>2.370788751</v>
+        <v>267.443320047</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -570,13 +570,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-428.64652898559837</v>
+        <v>-134.7311225764285</v>
       </c>
       <c r="C7">
-        <v>3.978342178249943e-14</v>
+        <v>0.09963374805368759</v>
       </c>
       <c r="D7">
-        <v>2.10178025</v>
+        <v>306.927288725</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -596,13 +596,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-422.09181730807757</v>
+        <v>-134.05690452315747</v>
       </c>
       <c r="C8">
-        <v>1.3467074349680063e-14</v>
+        <v>0.01994662578365207</v>
       </c>
       <c r="D8">
-        <v>2.271198554</v>
+        <v>324.334940613</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -622,13 +622,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-429.9772620922706</v>
+        <v>-135.7697110128234</v>
       </c>
       <c r="C9">
-        <v>0.0</v>
+        <v>0.08848844495508709</v>
       </c>
       <c r="D9">
-        <v>2.434197084</v>
+        <v>238.903778818</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -648,13 +648,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-435.3518524766065</v>
+        <v>-136.4115378108678</v>
       </c>
       <c r="C10">
-        <v>1.3056891463175622e-14</v>
+        <v>0.005124068076634766</v>
       </c>
       <c r="D10">
-        <v>2.453837265</v>
+        <v>410.598612087</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -674,13 +674,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-419.16895606123836</v>
+        <v>-132.4617911649394</v>
       </c>
       <c r="C11">
-        <v>1.300782775466246e-9</v>
+        <v>0.02730893040950624</v>
       </c>
       <c r="D11">
-        <v>2.351129154</v>
+        <v>359.950279801</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
